--- a/[IN]Cobertura_Vacunacion_Departamental_2016-2019.xlsx
+++ b/[IN]Cobertura_Vacunacion_Departamental_2016-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataliavillegas/Documents/NOVENO SEMESTRE (2025-1)/BI/Proyecto2-BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1442701-9D22-1044-83E7-A750A8C13049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929363E-EBE7-3149-A2B7-40FAB1ED1502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016 (Titulo)" sheetId="33" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="338">
   <si>
     <t>Código</t>
   </si>
@@ -1139,13 +1139,7 @@
     <t>PENTA MENOR DE UN AÑO (3ras. Dosis)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2019 Población de 1 Año (Meta Programática)</t>
-  </si>
-  <si>
     <t>2019 F.A. 1 AÑO (U.Dósis)</t>
-  </si>
-  <si>
-    <t>2019 F.A. 1 AÑO  (% de cobertura)</t>
   </si>
   <si>
     <t>2016 Población de 1 Año (Meta Programática)</t>
@@ -1157,22 +1151,28 @@
     <t>2016 F.A. 1 AÑO (% DE COBERTURA)</t>
   </si>
   <si>
-    <t>2017 Población de 1 Año (Meta Programática )</t>
-  </si>
-  <si>
     <t>2017 F.A. 1 AÑO (U.Dósis)</t>
   </si>
   <si>
     <t>2017 F.A. 1 AÑO (% DE COBERTURA)</t>
   </si>
   <si>
-    <t>2018 Población de 1 Año (Meta Programática )</t>
-  </si>
-  <si>
     <t>2018 F.A. 1 AÑO (U.Dósis)</t>
   </si>
   <si>
     <t>2018 F.A. 1 AÑO (% DE COBERTURA)</t>
+  </si>
+  <si>
+    <t>2019 Población de 1 Año (Meta Programática)</t>
+  </si>
+  <si>
+    <t>2018 Población de 1 Año (Meta Programática)</t>
+  </si>
+  <si>
+    <t>2017 Población de 1 Año (Meta Programática)</t>
+  </si>
+  <si>
+    <t>2019 F.A. 1 AÑO (% DE COBERTURA)</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2592,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="589">
+  <cellXfs count="590">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="63" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="43" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3966,6 +3966,9 @@
     <xf numFmtId="1" fontId="29" fillId="46" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="76" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -32481,10 +32484,10 @@
   <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AG41" sqref="AG41"/>
+      <selection pane="bottomRight" activeCell="AN39" sqref="AN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -41287,7 +41290,7 @@
         <v>2081</v>
       </c>
       <c r="AN38" s="132">
-        <f t="shared" si="11"/>
+        <f>ROUND(AM38/$AH38*100,1)</f>
         <v>111.2</v>
       </c>
       <c r="AO38" s="138">
@@ -51166,7 +51169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:BR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
@@ -71155,10 +71158,10 @@
   <dimension ref="A1:BX66"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AF21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH47" sqref="AH47"/>
+      <selection pane="bottomRight" activeCell="BX1" sqref="BX1:BX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -81738,10 +81741,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E986047D-5C1A-1547-9C7C-E5292892C042}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -81759,50 +81762,54 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="7.83203125" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="49" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="185" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="437" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="437" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="437" t="s">
+      <c r="E1" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="452" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="437" t="s">
+      <c r="G1" s="452" t="s">
         <v>331</v>
-      </c>
-      <c r="E1" s="162" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="452" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="452" t="s">
-        <v>334</v>
       </c>
       <c r="H1" s="162" t="s">
         <v>335</v>
       </c>
       <c r="I1" s="452" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J1" s="452" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" s="270" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="474" t="s">
+        <v>326</v>
+      </c>
+      <c r="M1" s="474" t="s">
         <v>337</v>
       </c>
-      <c r="K1" s="270" t="s">
-        <v>326</v>
-      </c>
-      <c r="L1" s="474" t="s">
-        <v>327</v>
-      </c>
-      <c r="M1" s="474" t="s">
-        <v>328</v>
+      <c r="N1" s="421" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="187" t="s">
         <v>51</v>
       </c>
@@ -81843,8 +81850,11 @@
         <f>ROUND(L2/K2*100,1)</f>
         <v>93.7</v>
       </c>
+      <c r="N2" s="589" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="187" t="s">
         <v>54</v>
       </c>
@@ -81885,8 +81895,11 @@
         <f t="shared" ref="M3:M38" si="0">ROUND(L3/K3*100,1)</f>
         <v>89.1</v>
       </c>
+      <c r="N3" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="196" t="s">
         <v>56</v>
       </c>
@@ -81927,8 +81940,11 @@
         <f t="shared" si="0"/>
         <v>110.7</v>
       </c>
+      <c r="N4" s="589" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="196" t="s">
         <v>59</v>
       </c>
@@ -81969,8 +81985,11 @@
         <f t="shared" si="0"/>
         <v>100.8</v>
       </c>
+      <c r="N5" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="197" t="s">
         <v>62</v>
       </c>
@@ -82011,8 +82030,11 @@
         <f t="shared" si="0"/>
         <v>95.1</v>
       </c>
+      <c r="N6" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="196" t="s">
         <v>63</v>
       </c>
@@ -82053,8 +82075,11 @@
         <f t="shared" si="0"/>
         <v>81.599999999999994</v>
       </c>
+      <c r="N7" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="196" t="s">
         <v>64</v>
       </c>
@@ -82095,8 +82120,11 @@
         <f t="shared" si="0"/>
         <v>83.8</v>
       </c>
+      <c r="N8" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="197" t="s">
         <v>65</v>
       </c>
@@ -82137,8 +82165,11 @@
         <f t="shared" si="0"/>
         <v>84.3</v>
       </c>
+      <c r="N9" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="187" t="s">
         <v>66</v>
       </c>
@@ -82179,8 +82210,11 @@
         <f t="shared" si="0"/>
         <v>93.6</v>
       </c>
+      <c r="N10" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="187" t="s">
         <v>67</v>
       </c>
@@ -82221,8 +82255,11 @@
         <f t="shared" si="0"/>
         <v>93.8</v>
       </c>
+      <c r="N11" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="196" t="s">
         <v>68</v>
       </c>
@@ -82263,8 +82300,11 @@
         <f t="shared" si="0"/>
         <v>97.3</v>
       </c>
+      <c r="N12" s="589" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="187" t="s">
         <v>69</v>
       </c>
@@ -82305,8 +82345,11 @@
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
+      <c r="N13" s="589" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="196" t="s">
         <v>70</v>
       </c>
@@ -82347,8 +82390,11 @@
         <f t="shared" si="0"/>
         <v>86.3</v>
       </c>
+      <c r="N14" s="589" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="196" t="s">
         <v>72</v>
       </c>
@@ -82389,8 +82435,11 @@
         <f t="shared" si="0"/>
         <v>93.1</v>
       </c>
+      <c r="N15" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="196" t="s">
         <v>74</v>
       </c>
@@ -82431,8 +82480,11 @@
         <f t="shared" si="0"/>
         <v>88.4</v>
       </c>
+      <c r="N16" s="589" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="196" t="s">
         <v>75</v>
       </c>
@@ -82473,8 +82525,11 @@
         <f t="shared" si="0"/>
         <v>87.3</v>
       </c>
+      <c r="N17" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="196" t="s">
         <v>76</v>
       </c>
@@ -82515,8 +82570,11 @@
         <f t="shared" si="0"/>
         <v>90.2</v>
       </c>
+      <c r="N18" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="196" t="s">
         <v>77</v>
       </c>
@@ -82557,8 +82615,11 @@
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
+      <c r="N19" s="589" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="187" t="s">
         <v>78</v>
       </c>
@@ -82599,8 +82660,11 @@
         <f t="shared" si="0"/>
         <v>103.3</v>
       </c>
+      <c r="N20" s="589" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="187" t="s">
         <v>79</v>
       </c>
@@ -82641,8 +82705,11 @@
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
+      <c r="N21" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="187" t="s">
         <v>80</v>
       </c>
@@ -82683,8 +82750,11 @@
         <f t="shared" si="0"/>
         <v>72.2</v>
       </c>
+      <c r="N22" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="187" t="s">
         <v>81</v>
       </c>
@@ -82725,8 +82795,11 @@
         <f t="shared" si="0"/>
         <v>95.3</v>
       </c>
+      <c r="N23" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="198" t="s">
         <v>82</v>
       </c>
@@ -82767,8 +82840,11 @@
         <f t="shared" si="0"/>
         <v>84.3</v>
       </c>
+      <c r="N24" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="187" t="s">
         <v>83</v>
       </c>
@@ -82809,8 +82885,11 @@
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
+      <c r="N25" s="589" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="187" t="s">
         <v>84</v>
       </c>
@@ -82851,8 +82930,11 @@
         <f t="shared" si="0"/>
         <v>83.8</v>
       </c>
+      <c r="N26" s="589" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="187" t="s">
         <v>85</v>
       </c>
@@ -82893,8 +82975,11 @@
         <f t="shared" si="0"/>
         <v>106.6</v>
       </c>
+      <c r="N27" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="187" t="s">
         <v>86</v>
       </c>
@@ -82935,8 +83020,11 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
+      <c r="N28" s="589" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="187" t="s">
         <v>87</v>
       </c>
@@ -82977,8 +83065,11 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
+      <c r="N29" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="187" t="s">
         <v>88</v>
       </c>
@@ -83019,8 +83110,11 @@
         <f t="shared" si="0"/>
         <v>94.7</v>
       </c>
+      <c r="N30" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="187" t="s">
         <v>164</v>
       </c>
@@ -83061,8 +83155,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="N31" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="187" t="s">
         <v>90</v>
       </c>
@@ -83103,8 +83200,11 @@
         <f t="shared" si="0"/>
         <v>86.2</v>
       </c>
+      <c r="N32" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="187" t="s">
         <v>91</v>
       </c>
@@ -83145,8 +83245,11 @@
         <f t="shared" si="0"/>
         <v>100.4</v>
       </c>
+      <c r="N33" s="589" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="187" t="s">
         <v>92</v>
       </c>
@@ -83187,8 +83290,11 @@
         <f t="shared" si="0"/>
         <v>95.4</v>
       </c>
+      <c r="N34" s="589" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="187" t="s">
         <v>141</v>
       </c>
@@ -83229,8 +83335,11 @@
         <f t="shared" si="0"/>
         <v>96.3</v>
       </c>
+      <c r="N35" s="589" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="187" t="s">
         <v>95</v>
       </c>
@@ -83271,8 +83380,11 @@
         <f t="shared" si="0"/>
         <v>62.8</v>
       </c>
+      <c r="N36" s="589" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="187" t="s">
         <v>96</v>
       </c>
@@ -83313,8 +83425,11 @@
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
+      <c r="N37" s="589" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="187" t="s">
         <v>97</v>
       </c>
@@ -83355,8 +83470,11 @@
         <f t="shared" si="0"/>
         <v>95.3</v>
       </c>
+      <c r="N38" s="589" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="481" t="s">
         <v>98</v>
       </c>
@@ -83401,8 +83519,10 @@
       <c r="M39" s="483">
         <v>89.9</v>
       </c>
+      <c r="N39" s="208"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
